--- a/数据整理/stocks/A股/上证主板/600557-康缘药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600557-康缘药业.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,595 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600557-康缘药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600557-康缘药业.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1132,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1143,17 +1144,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1163,14 +1184,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.44</v>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1179,13 +1222,763 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600557-康缘药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600557-康缘药业.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,95 +453,861 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1127,862 +1893,96 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金规模</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010709</t>
+          <t>010434</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信医药健康主题股票A</t>
+          <t>红土创新医疗保健股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.50</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.94</t>
+          <t>91.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7701</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010710</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>安信医药健康主题股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3986</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004683</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信高端医疗股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1632</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002300</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长盛医疗行业量化配置股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1538</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000684</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长盛养老健康产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0830</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008412</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长盛竞争优势股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0683</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008618</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0621</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008923</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>建信医疗健康行业股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0573</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0468</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010683</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中融景颐6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>21.61</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0441</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008619</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.06</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008413</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长盛竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>530016</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信恒稳价值混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>78.12</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008924</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信医疗健康行业股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.89</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010684</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中融景颐6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>21.61</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>013072</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰信医疗服务混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.36</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>013073</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泰信医疗服务混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>86.36</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600557-康缘药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600557-康缘药业.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>1.96</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>1.44</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -532,6 +549,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1307,7 +2026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1893,7 +2612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600557-康缘药业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600557-康缘药业.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>1.44</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>1.96</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>1.44</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -549,6 +566,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7506</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2918</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011813</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014701</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧量化动能混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014702</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧量化动能混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015562</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004801</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011814</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1250,7 +2461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2026,7 +3237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2612,7 +3823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
